--- a/SiteCode/Live Data/leads.xlsx
+++ b/SiteCode/Live Data/leads.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,40 +436,50 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.7</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.6</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.5</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.4</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
@@ -480,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
@@ -495,14 +505,20 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
         <v>3</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>mcm</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>ak@techopen</t>
         </is>
@@ -513,29 +529,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>3</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>4</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>4</v>
       </c>
-      <c r="G3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>mtnl</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>ak@techopen</t>
         </is>
@@ -546,29 +568,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>4</v>
       </c>
-      <c r="E4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
       <c r="G4" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>Telenor</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>ak@techopen</t>
         </is>
@@ -579,29 +607,35 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5</v>
-      </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" t="n">
         <v>7</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>digital wholesale</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>ak@techopen</t>
         </is>
@@ -612,27 +646,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
         <v>7</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>7</v>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
         <is>
           <t>Acepeak</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>ak@techopen</t>
         </is>
@@ -643,23 +683,29 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>7</v>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
         <is>
           <t>vodafone</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>ak@techopen</t>
         </is>
@@ -669,20 +715,49 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
         <is>
           <t>techopen</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>ak@techopen</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>digital</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>wholesale</t>
         </is>
       </c>
     </row>

--- a/SiteCode/Live Data/leads.xlsx
+++ b/SiteCode/Live Data/leads.xlsx
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.8</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0.7</t>
@@ -486,7 +491,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -525,7 +530,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -564,7 +569,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
@@ -603,7 +608,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
@@ -642,7 +647,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
@@ -679,7 +684,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
@@ -712,7 +717,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
@@ -739,7 +744,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr"/>

--- a/SiteCode/Live Data/leads.xlsx
+++ b/SiteCode/Live Data/leads.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:B147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,333 +436,1764 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0.8</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0.7</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.6</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.5</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.3</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.1</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>Contact</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>mcm</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>ak@techopen</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>mtnl</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>ak@techopen</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Telenor</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>ak@techopen</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>digital wholesale</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>ak@techopen</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Acepeak</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>ak@techopen</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7</v>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>vodafone</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>ak@techopen</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>techopen</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>ak@techopen</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>digital</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>wholesale</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Amey katale</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>mcmameyk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Nagendra test</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>nagendradwivedi2001@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Joe Celine</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>joe@seo-indepth.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>test Testing</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>nagendradwivedi2001@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jom Bobby</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jimmbon@aol.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>amey teseting</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>sk3group2@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Wisdom Umohore</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>samkevjame@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>robert silva</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>rsilvaiii84@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>david jeronimo</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>admin@makeware.online</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>James Brown</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>kimbrell.erik@googlemail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Derick Singer</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>digitalwebsiteonline@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Trey Perrin</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>trey.perrin@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>.c.h.a.s.e. Businger</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>26busingerca@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Mahmoud Daood</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>mdawwd845@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Florine Stoate</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>stoate.florine@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sharad mehta</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>sharadmehta21@outlook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Lee Grayndler</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>lee.grayndler89@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Alena Alenatal</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>alenatal@mypeachmaker.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>imalsha net</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>imalshapulasinha@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Amey</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>mcmameyk@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Fhskdm Fu5egv</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>sfkfab@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>caroline tovar</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>tovarcaroline514@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Lina</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>linajed@myeditspace.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Eric Jones</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ericjonesmyemail@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Steve Michael</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>banna9933@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Wubing</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>dadiao223355@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Trudy Rhomberg</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>trudy@vastoutreach.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>harry kane</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>harrybro381@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Ines Leworthy</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ines.leworthy@outlook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Patrick Barry</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>pbarryny@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>elle derr</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>snobishways4641@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Neo Chi</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ufywsrlr@pretreer.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Favour iyedecha</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>iyedechafavour@gmail.con</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Ashish Sharma</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ivtbwg@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>WAN YEN LIN</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>windinnchairal@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Micaela Micaela</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>jennifer@appetitecreative.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BradleyMakBE</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>sasiskka@kazinolvl.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Kazi Sisel</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>coo@ncicarrier.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Geoffrey Avenido</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>geoffreyavenido12@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Saiyan Isark</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ruttoelolia1@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Asenath Tindi</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>achietin5@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>zhen zhang</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>walei1151@yeah.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>mostapha mouradi</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>contact@nharco.co.site</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Abdelrahman Elbarbary</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>arahman.elbarbary@yahoo.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Imran Nazir</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>imranhost0@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>b.baptista@copublica.dk</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>DAVID BENNETT</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>amyhetrick444@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Thhe Nighasd</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>lmonkeysfr@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>stamp_vabFW</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>xr3@it-cooler.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>rajesh gupta</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>tarapurwala@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Rajesh Pal</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>rajeshpal69@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>haio trab</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>iws88237@zslsz.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>btech 4th</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>mmondal993@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Oma Hynes</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>oma.hynes@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Jarrod Bisson</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>bisson.jarrod@outlook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Faith Magee</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>faithmagee@my.unt.edu</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Marcusnok</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>debugyun54@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Abdulrehman Kapadia</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>sk3group1@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Brian Flex</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>freddie.brian1@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SHA KIB</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>shakibsumo33@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Eric Watson</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>edwatson77@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>dilan jay</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>dilanjay008@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>William Wilson</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>chesser.neil@yahoo.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Push it to the limit cool Wolf you are the best and you can do everything</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002kajalgautam@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Isabella Isabellasig</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>isabellasig@milliependola.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>j bird</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ineededagoodemail@tutsnota.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Diego McColl</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>digitalwebsiteonline@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Megan Atkinson</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>meganatkinson149@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Mike Walker</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>mikeplaulky@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Chassidy</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>chassidy.tomlin@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Richard Hamel</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>richardhamel33@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ADNAN SAMI</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>adnansami97952@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Matej Dvoracek</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>pastika.mata@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Maria Kelso</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>maria@furthertrends.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ArthurGor</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>yasen.krasen.13+75247@mail.ru</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ArthurGor</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>yasen.krasen.13+81188@mail.ru</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ArthurGor</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>yasen.krasen.13+95229@mail.ru</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Abdou airour</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>abdouairour18@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Daphne Ann</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>daphne.ann@advantageinvestors.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Dan Yes</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>kouyss@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Libby</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>libbyevans461@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>arushi garg</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>arushi.garg@bba.christuniversity.in</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>sfwewfwe wefwefwe</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>dkuyhgtdi@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Amey Test</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>info@mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Amey Floatchat</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>sk3group2@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>amey Floatchat</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>sk3group2@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Mike Gilmore</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>mikeinnody@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Abdulrehman testing</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>info@smslocal.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>megha lohar</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>sk3group2@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Lolo Bee</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>lolo.emu@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Rakib Khan</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>testrakib321@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Melissa Ansell</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ansell.melissa@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Tristen Tristan</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>golemapple@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>saroar Hossain</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>saroarhossan888@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>LavillHaxHE</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>revers@1ti.ru</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Natso Ins</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>incnatso@priest.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Amanda White</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>amanda@onlinearticles.org</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>akdb fkkf</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ridoyhasan17654@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Sneha Sneh</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>testing@sneha.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Joel</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>info@telecom2go.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>jack brown</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>shreddedbra@yahoo.com.au</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Hady Salah</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>hadysalah632@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Georgina Haynes</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>georginahaynes620@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Anthony Davis</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>computador346789@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Zubair Ali</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>zubairaliadm@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Johnie Johnie</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>info@saintlucliege.be</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Sneha Bendre</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>snehatest@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Sneha</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Snehatest@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>dad fasf</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>carlostillo2672@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Aurora Anderson</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>aurora@wowblogging.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Joseph Davis</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>kathie.linkous@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Push it to the limit cool Wolf! You are the best and you can do everything!</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>assoltarasova83@mail.ru</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>fefere ererrr</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>wilbournejohn5@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Push it to the limit cool Wolf! You are the best and you can do everything!</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>danil0796@rambler.ru</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Georgina</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>georginahaynes620@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Jamal Jamal</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>abhijitsexo@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Andrew Bright</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>andrewbright46@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>sdad asda</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>hagekavu@hexi.pics</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ooxbvlgw@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>yywtkuqa@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>hossein d</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>e.ho3ein@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>nbydihjm@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>juliana hallie</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>julianahallieadvisorseo@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>MUHAMMAD Ubaid</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>muhammadubaidnadeem@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Junko Junko</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>junko@huntingfield.podiatristusa.sale</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Anthony Rich</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>hello@easywealthsystems.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>ShawnBizUQ</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>mr.bumbaster81@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>hgvmvvay@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>pisyaufp@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>VirgilligYQ</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>sitechecker69+round2@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>manna da</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>memlizispi@gufum.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>xcqohbok@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>miwuauhx@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>pdoxvuyc@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>onqdpgtv@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>cdlmtikn@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>phomttic@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>usvxndyr@gmail.com</t>
         </is>
       </c>
     </row>

--- a/SiteCode/Live Data/leads.xlsx
+++ b/SiteCode/Live Data/leads.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B147"/>
+  <dimension ref="A1:C207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,1516 +444,2151 @@
           <t>Contact</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mcm</t>
+          <t>Amey katale</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ak@techopen</t>
+          <t>mcmameyk@gmail.com</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mtnl</t>
+          <t>Nagendra test</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ak@techopen</t>
+          <t>nagendradwivedi2001@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.smslocal.com</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Telenor</t>
+          <t>Joe Celine</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ak@techopen</t>
+          <t>joe@seo-indepth.com</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>digital wholesale</t>
+          <t>test Testing</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ak@techopen</t>
+          <t>nagendradwivedi2001@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.smslocal.com</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Acepeak</t>
+          <t>Jom Bobby</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ak@techopen</t>
+          <t>jimmbon@aol.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>vodafone</t>
+          <t>amey teseting</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ak@techopen</t>
+          <t>sk3group2@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>techopen</t>
+          <t>Wisdom Umohore</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ak@techopen</t>
+          <t>samkevjame@gmail.com</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>digital</t>
+          <t>robert silva</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>wholesale</t>
+          <t>rsilvaiii84@gmail.com</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Amey katale</t>
+          <t>david jeronimo</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>mcmameyk@gmail.com</t>
+          <t>admin@makeware.online</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nagendra test</t>
+          <t>James Brown</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>nagendradwivedi2001@gmail.com</t>
+          <t>kimbrell.erik@googlemail.com</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.letsdial.com</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Joe Celine</t>
+          <t>Derick Singer</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>joe@seo-indepth.com</t>
+          <t>digitalwebsiteonline@gmail.com</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://wpforms.com/account/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>test Testing</t>
+          <t>Trey Perrin</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>nagendradwivedi2001@gmail.com</t>
+          <t>trey.perrin@gmail.com</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://wpforms.com/account/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jom Bobby</t>
+          <t>.c.h.a.s.e. Businger</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jimmbon@aol.com</t>
+          <t>26busingerca@gmail.com</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>amey teseting</t>
+          <t>Mahmoud Daood</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>sk3group2@gmail.com</t>
+          <t>mdawwd845@gmail.com</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Wisdom Umohore</t>
+          <t>Florine Stoate</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>samkevjame@gmail.com</t>
+          <t>stoate.florine@hotmail.com</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://wpforms.com/account/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>robert silva</t>
+          <t>sharad mehta</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>rsilvaiii84@gmail.com</t>
+          <t>sharadmehta21@outlook.com</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>david jeronimo</t>
+          <t>Lee Grayndler</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>admin@makeware.online</t>
+          <t>lee.grayndler89@gmail.com</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://wpforms.com/account/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>James Brown</t>
+          <t>Alena Alenatal</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>kimbrell.erik@googlemail.com</t>
+          <t>alenatal@mypeachmaker.com</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Derick Singer</t>
+          <t>imalsha net</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>digitalwebsiteonline@gmail.com</t>
+          <t>imalshapulasinha@gmail.com</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Trey Perrin</t>
+          <t>Amey</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>trey.perrin@gmail.com</t>
+          <t>mcmameyk@gmail.com</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.softtop.tech</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>.c.h.a.s.e. Businger</t>
+          <t>Fhskdm Fu5egv</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>26busingerca@gmail.com</t>
+          <t>sfkfab@gmail.com</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Mahmoud Daood</t>
+          <t>caroline tovar</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>mdawwd845@gmail.com</t>
+          <t>tovarcaroline514@gmail.com</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Florine Stoate</t>
+          <t>Lina</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>stoate.florine@hotmail.com</t>
+          <t>linajed@myeditspace.com</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.letsdial.com</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>sharad mehta</t>
+          <t>Eric Jones</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>sharadmehta21@outlook.com</t>
+          <t>ericjonesmyemail@gmail.com</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://wpforms.com/account/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lee Grayndler</t>
+          <t>Steve Michael</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>lee.grayndler89@gmail.com</t>
+          <t>banna9933@gmail.com</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Alena Alenatal</t>
+          <t>Wubing</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>alenatal@mypeachmaker.com</t>
+          <t>dadiao223355@gmail.com</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.softtop.tech</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>imalsha net</t>
+          <t>Trudy Rhomberg</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>imalshapulasinha@gmail.com</t>
+          <t>trudy@vastoutreach.com</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Amey</t>
+          <t>harry kane</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>mcmameyk@gmail.com</t>
+          <t>harrybro381@gmail.com</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fhskdm Fu5egv</t>
+          <t>Ines Leworthy</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>sfkfab@gmail.com</t>
+          <t>ines.leworthy@outlook.com</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://wpforms.com/account/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>caroline tovar</t>
+          <t>Patrick Barry</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>tovarcaroline514@gmail.com</t>
+          <t>pbarryny@gmail.com</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Lina</t>
+          <t>elle derr</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>linajed@myeditspace.com</t>
+          <t>snobishways4641@gmail.com</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Eric Jones</t>
+          <t>Neo Chi</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ericjonesmyemail@gmail.com</t>
+          <t>ufywsrlr@pretreer.com</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Steve Michael</t>
+          <t>Favour iyedecha</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>banna9933@gmail.com</t>
+          <t>iyedechafavour@gmail.con</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Wubing</t>
+          <t>Ashish Sharma</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>dadiao223355@gmail.com</t>
+          <t>ivtbwg@gmail.com</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Trudy Rhomberg</t>
+          <t>WAN YEN LIN</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>trudy@vastoutreach.com</t>
+          <t>windinnchairal@gmail.com</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>harry kane</t>
+          <t>Micaela Micaela</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>harrybro381@gmail.com</t>
+          <t>jennifer@appetitecreative.com</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://wpforms.com/account/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Ines Leworthy</t>
+          <t>BradleyMakBE</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ines.leworthy@outlook.com</t>
+          <t>sasiskka@kazinolvl.com</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Patrick Barry</t>
+          <t>Kazi Sisel</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pbarryny@gmail.com</t>
+          <t>coo@ncicarrier.com</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>elle derr</t>
+          <t>Geoffrey Avenido</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>snobishways4641@gmail.com</t>
+          <t>geoffreyavenido12@gmail.com</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Neo Chi</t>
+          <t>Saiyan Isark</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ufywsrlr@pretreer.com</t>
+          <t>ruttoelolia1@gmail.com</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Favour iyedecha</t>
+          <t>Asenath Tindi</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>iyedechafavour@gmail.con</t>
+          <t>achietin5@gmail.com</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Ashish Sharma</t>
+          <t>zhen zhang</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ivtbwg@gmail.com</t>
+          <t>walei1151@yeah.net</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>WAN YEN LIN</t>
+          <t>mostapha mouradi</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>windinnchairal@gmail.com</t>
+          <t>contact@nharco.co.site</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Micaela Micaela</t>
+          <t>Abdelrahman Elbarbary</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>jennifer@appetitecreative.com</t>
+          <t>arahman.elbarbary@yahoo.com</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BradleyMakBE</t>
+          <t>Imran Nazir</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>sasiskka@kazinolvl.com</t>
+          <t>imranhost0@gmail.com</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Kazi Sisel</t>
+          <t>Brian</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>coo@ncicarrier.com</t>
+          <t>b.baptista@copublica.dk</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://wpforms.com/account/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Geoffrey Avenido</t>
+          <t>DAVID BENNETT</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>geoffreyavenido12@gmail.com</t>
+          <t>amyhetrick444@gmail.com</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Saiyan Isark</t>
+          <t>Thhe Nighasd</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ruttoelolia1@gmail.com</t>
+          <t>lmonkeysfr@gmail.com</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Asenath Tindi</t>
+          <t>stamp_vabFW</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>achietin5@gmail.com</t>
+          <t>xr3@it-cooler.com</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>zhen zhang</t>
+          <t>rajesh gupta</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>walei1151@yeah.net</t>
+          <t>tarapurwala@gmail.com</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>mostapha mouradi</t>
+          <t>Rajesh Pal</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>contact@nharco.co.site</t>
+          <t>rajeshpal69@gmail.com</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Abdelrahman Elbarbary</t>
+          <t>haio trab</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>arahman.elbarbary@yahoo.com</t>
+          <t>iws88237@zslsz.com</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Imran Nazir</t>
+          <t>btech 4th</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>imranhost0@gmail.com</t>
+          <t>mmondal993@gmail.com</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Brian</t>
+          <t>Oma Hynes</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>b.baptista@copublica.dk</t>
+          <t>oma.hynes@gmail.com</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DAVID BENNETT</t>
+          <t>Jarrod Bisson</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>amyhetrick444@gmail.com</t>
+          <t>bisson.jarrod@outlook.com</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.letsdial.com</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Thhe Nighasd</t>
+          <t>Faith Magee</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>lmonkeysfr@gmail.com</t>
+          <t>faithmagee@my.unt.edu</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>stamp_vabFW</t>
+          <t>Marcusnok</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>xr3@it-cooler.com</t>
+          <t>debugyun54@gmail.com</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.softtop.tech</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>rajesh gupta</t>
+          <t>Abdulrehman Kapadia</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>tarapurwala@gmail.com</t>
+          <t>sk3group1@gmail.com</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Rajesh Pal</t>
+          <t>Brian Flex</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>rajeshpal69@gmail.com</t>
+          <t>freddie.brian1@gmail.com</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>haio trab</t>
+          <t>SHA KIB</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>iws88237@zslsz.com</t>
+          <t>shakibsumo33@gmail.com</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>btech 4th</t>
+          <t>Eric Watson</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>mmondal993@gmail.com</t>
+          <t>edwatson77@gmail.com</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Oma Hynes</t>
+          <t>dilan jay</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>oma.hynes@gmail.com</t>
+          <t>dilanjay008@gmail.com</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Jarrod Bisson</t>
+          <t>William Wilson</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>bisson.jarrod@outlook.com</t>
+          <t>chesser.neil@yahoo.com</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.letsdial.com</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Faith Magee</t>
+          <t>Push it to the limit cool Wolf you are the best and you can do everything</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>faithmagee@my.unt.edu</t>
+          <t>002kajalgautam@gmail.com</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.letsdial.com</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Marcusnok</t>
+          <t>Isabella Isabellasig</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>debugyun54@gmail.com</t>
+          <t>isabellasig@milliependola.com</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Abdulrehman Kapadia</t>
+          <t>j bird</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>sk3group1@gmail.com</t>
+          <t>ineededagoodemail@tutsnota.com</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Brian Flex</t>
+          <t>Diego McColl</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>freddie.brian1@gmail.com</t>
+          <t>digitalwebsiteonline@gmail.com</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://wpforms.com/account/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SHA KIB</t>
+          <t>Megan Atkinson</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>shakibsumo33@gmail.com</t>
+          <t>meganatkinson149@gmail.com</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.letsdial.com</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Eric Watson</t>
+          <t>Mike Walker</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>edwatson77@gmail.com</t>
+          <t>mikeplaulky@gmail.com</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.twichinggeneraltrading.com</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>dilan jay</t>
+          <t>Chassidy</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>dilanjay008@gmail.com</t>
+          <t>chassidy.tomlin@gmail.com</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.softtop.tech</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>William Wilson</t>
+          <t>Richard Hamel</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>chesser.neil@yahoo.com</t>
+          <t>richardhamel33@gmail.com</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Push it to the limit cool Wolf you are the best and you can do everything</t>
+          <t>ADNAN SAMI</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>002kajalgautam@gmail.com</t>
+          <t>adnansami97952@gmail.com</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Isabella Isabellasig</t>
+          <t>Matej Dvoracek</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>isabellasig@milliependola.com</t>
+          <t>pastika.mata@gmail.com</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>j bird</t>
+          <t>Maria Kelso</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ineededagoodemail@tutsnota.com</t>
+          <t>maria@furthertrends.com</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.letsdial.com</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Diego McColl</t>
+          <t>ArthurGor</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>digitalwebsiteonline@gmail.com</t>
+          <t>yasen.krasen.13+75247@mail.ru</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.softtop.tech</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Megan Atkinson</t>
+          <t>ArthurGor</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>meganatkinson149@gmail.com</t>
+          <t>yasen.krasen.13+81188@mail.ru</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.softtop.tech</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Mike Walker</t>
+          <t>ArthurGor</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>mikeplaulky@gmail.com</t>
+          <t>yasen.krasen.13+95229@mail.ru</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.softtop.tech</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Chassidy</t>
+          <t>Abdou airour</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>chassidy.tomlin@gmail.com</t>
+          <t>abdouairour18@gmail.com</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Richard Hamel</t>
+          <t>Daphne Ann</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>richardhamel33@gmail.com</t>
+          <t>daphne.ann@advantageinvestors.net</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ADNAN SAMI</t>
+          <t>Dan Yes</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>adnansami97952@gmail.com</t>
+          <t>kouyss@hotmail.com</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Matej Dvoracek</t>
+          <t>Libby</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>pastika.mata@gmail.com</t>
+          <t>libbyevans461@gmail.com</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.softtop.tech</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Maria Kelso</t>
+          <t>arushi garg</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>maria@furthertrends.com</t>
+          <t>arushi.garg@bba.christuniversity.in</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ArthurGor</t>
+          <t>sfwewfwe wefwefwe</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>yasen.krasen.13+75247@mail.ru</t>
+          <t>dkuyhgtdi@gmail.com</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ArthurGor</t>
+          <t>Amey Test</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>yasen.krasen.13+81188@mail.ru</t>
+          <t>info@mycountrymobile.com</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ArthurGor</t>
+          <t>Amey Floatchat</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>yasen.krasen.13+95229@mail.ru</t>
+          <t>sk3group2@gmail.com</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Abdou airour</t>
+          <t>amey Floatchat</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>abdouairour18@gmail.com</t>
+          <t>sk3group2@gmail.com</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Daphne Ann</t>
+          <t>Mike Gilmore</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>daphne.ann@advantageinvestors.net</t>
+          <t>mikeinnody@gmail.com</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.twichinggeneraltrading.com</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Dan Yes</t>
+          <t>megha lohar</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>kouyss@hotmail.com</t>
+          <t>sk3group2@gmail.com</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Libby</t>
+          <t>Lolo Bee</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>libbyevans461@gmail.com</t>
+          <t>lolo.emu@gmail.com</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.smslocal.com</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>arushi garg</t>
+          <t>Rakib Khan</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>arushi.garg@bba.christuniversity.in</t>
+          <t>testrakib321@gmail.com</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>sfwewfwe wefwefwe</t>
+          <t>Melissa Ansell</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>dkuyhgtdi@gmail.com</t>
+          <t>ansell.melissa@gmail.com</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Amey Test</t>
+          <t>Tristen Tristan</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>info@mycountrymobile.com</t>
+          <t>golemapple@gmail.com</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Amey Floatchat</t>
+          <t>saroar Hossain</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>sk3group2@gmail.com</t>
+          <t>saroarhossan888@gmail.com</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>amey Floatchat</t>
+          <t>LavillHaxHE</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>sk3group2@gmail.com</t>
+          <t>revers@1ti.ru</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Mike Gilmore</t>
+          <t>Natso Ins</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>mikeinnody@gmail.com</t>
+          <t>incnatso@priest.com</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Abdulrehman testing</t>
+          <t>Amanda White</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>info@smslocal.com</t>
+          <t>amanda@onlinearticles.org</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://wpforms.com/account/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>megha lohar</t>
+          <t>akdb fkkf</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>sk3group2@gmail.com</t>
+          <t>ridoyhasan17654@gmail.com</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Lolo Bee</t>
+          <t>Sneha Sneh</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>lolo.emu@gmail.com</t>
+          <t>testing@sneha.com</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Rakib Khan</t>
+          <t>Joel</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>testrakib321@gmail.com</t>
+          <t>info@telecom2go.net</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.softtop.tech</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Melissa Ansell</t>
+          <t>jack brown</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ansell.melissa@gmail.com</t>
+          <t>shreddedbra@yahoo.com.au</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Tristen Tristan</t>
+          <t>Hady Salah</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>golemapple@gmail.com</t>
+          <t>hadysalah632@gmail.com</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>saroar Hossain</t>
+          <t>Georgina Haynes</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>saroarhossan888@gmail.com</t>
+          <t>georginahaynes620@gmail.com</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://www.letsdial.com</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>LavillHaxHE</t>
+          <t>Anthony Davis</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>revers@1ti.ru</t>
+          <t>computador346789@gmail.com</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Natso Ins</t>
+          <t>Zubair Ali</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>incnatso@priest.com</t>
+          <t>zubairaliadm@gmail.com</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Amanda White</t>
+          <t>Johnie Johnie</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>amanda@onlinearticles.org</t>
+          <t>info@saintlucliege.be</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://www.ringflow.com</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>akdb fkkf</t>
+          <t>Sneha Bendre</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ridoyhasan17654@gmail.com</t>
+          <t>snehatest@gmail.com</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sneha Sneh</t>
+          <t>Sneha</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>testing@sneha.com</t>
+          <t>Snehatest@gmail.com</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://www.letsdial.com</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Joel</t>
+          <t>dad fasf</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>info@telecom2go.net</t>
+          <t>carlostillo2672@gmail.com</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>jack brown</t>
+          <t>Aurora Anderson</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>shreddedbra@yahoo.com.au</t>
+          <t>aurora@wowblogging.com</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://www.ringflow.com</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Hady Salah</t>
+          <t>Joseph Davis</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>hadysalah632@gmail.com</t>
+          <t>kathie.linkous@gmail.com</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://www.letsdial.com</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Georgina Haynes</t>
+          <t>Push it to the limit cool Wolf! You are the best and you can do everything!</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>georginahaynes620@gmail.com</t>
+          <t>assoltarasova83@mail.ru</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://www.letsdial.com</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Anthony Davis</t>
+          <t>fefere ererrr</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>computador346789@gmail.com</t>
+          <t>wilbournejohn5@gmail.com</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Zubair Ali</t>
+          <t>Push it to the limit cool Wolf! You are the best and you can do everything!</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>zubairaliadm@gmail.com</t>
+          <t>danil0796@rambler.ru</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://www.letsdial.com</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Johnie Johnie</t>
+          <t>Georgina</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>info@saintlucliege.be</t>
+          <t>georginahaynes620@gmail.com</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://www.softtop.tech</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sneha Bendre</t>
+          <t>Jamal Jamal</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>snehatest@gmail.com</t>
+          <t>abhijitsexo@gmail.com</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Sneha</t>
+          <t>Andrew Bright</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Snehatest@gmail.com</t>
+          <t>andrewbright46@gmail.com</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>dad fasf</t>
+          <t>sdad asda</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>carlostillo2672@gmail.com</t>
+          <t>hagekavu@hexi.pics</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://www.smslocal.com</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Aurora Anderson</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>aurora@wowblogging.com</t>
+          <t>ooxbvlgw@gmail.com</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Joseph Davis</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>kathie.linkous@gmail.com</t>
+          <t>yywtkuqa@gmail.com</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Push it to the limit cool Wolf! You are the best and you can do everything!</t>
+          <t>hossein d</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>assoltarasova83@mail.ru</t>
+          <t>e.ho3ein@gmail.com</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>fefere ererrr</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>wilbournejohn5@gmail.com</t>
+          <t>nbydihjm@gmail.com</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Push it to the limit cool Wolf! You are the best and you can do everything!</t>
+          <t>juliana hallie</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>danil0796@rambler.ru</t>
+          <t>julianahallieadvisorseo@gmail.com</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://www.smslocal.com</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Georgina</t>
+          <t>MUHAMMAD Ubaid</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>georginahaynes620@gmail.com</t>
+          <t>muhammadubaidnadeem@gmail.com</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Jamal Jamal</t>
+          <t>Junko Junko</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>abhijitsexo@gmail.com</t>
+          <t>junko@huntingfield.podiatristusa.sale</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://www.ringflow.com</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Andrew Bright</t>
+          <t>Anthony Rich</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>andrewbright46@gmail.com</t>
+          <t>hello@easywealthsystems.com</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://www.letsdial.com</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>sdad asda</t>
+          <t>ShawnBizUQ</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>hagekavu@hexi.pics</t>
+          <t>mr.bumbaster81@gmail.com</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
@@ -1965,7 +2600,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ooxbvlgw@gmail.com</t>
+          <t>hgvmvvay@gmail.com</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
@@ -1977,91 +2617,131 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>yywtkuqa@gmail.com</t>
+          <t>pisyaufp@gmail.com</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>hossein d</t>
+          <t>VirgilligYQ</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>e.ho3ein@gmail.com</t>
+          <t>sitechecker69+round2@gmail.com</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>KevinVICRR</t>
+          <t>manna da</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>nbydihjm@gmail.com</t>
+          <t>memlizispi@gufum.com</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>juliana hallie</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>julianahallieadvisorseo@gmail.com</t>
+          <t>xcqohbok@gmail.com</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MUHAMMAD Ubaid</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>muhammadubaidnadeem@gmail.com</t>
+          <t>miwuauhx@gmail.com</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Junko Junko</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>junko@huntingfield.podiatristusa.sale</t>
+          <t>pdoxvuyc@gmail.com</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Anthony Rich</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>hello@easywealthsystems.com</t>
+          <t>onqdpgtv@gmail.com</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ShawnBizUQ</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>mr.bumbaster81@gmail.com</t>
+          <t>cdlmtikn@gmail.com</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2753,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>hgvmvvay@gmail.com</t>
+          <t>phomttic@gmail.com</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
@@ -2085,31 +2770,46 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>pisyaufp@gmail.com</t>
+          <t>usvxndyr@gmail.com</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>VirgilligYQ</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>sitechecker69+round2@gmail.com</t>
+          <t>ubzbbhgj@gmail.com</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>manna da</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>memlizispi@gufum.com</t>
+          <t>wyduwjpp@gmail.com</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2821,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>xcqohbok@gmail.com</t>
+          <t>xhjgtgqj@gmail.com</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2838,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>miwuauhx@gmail.com</t>
+          <t>mplfgnjo@gmail.com</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2855,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>pdoxvuyc@gmail.com</t>
+          <t>uvjodqhm@gmail.com</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2872,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>onqdpgtv@gmail.com</t>
+          <t>arefafum@gmail.com</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
@@ -2169,19 +2889,29 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>cdlmtikn@gmail.com</t>
+          <t>auhqgutu@gmail.com</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>KevinVICRR</t>
+          <t>jade johnson</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>phomttic@gmail.com</t>
+          <t>jadejohnson6917@gmail.com</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2923,1032 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>usvxndyr@gmail.com</t>
+          <t>ayogeost@gmail.com</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>curtmrxp@gmail.com</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>sqvdhmwa@gmail.com</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>kgwymysx@gmail.com</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Prince Do</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>dohareyprince@gmail.com</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ssdpxkyf@gmail.com</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ffylpwqo@gmail.com</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ejjullav@gmail.com</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>psrpeqdo@gmail.com</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>dyilrzcs@gmail.com</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Morsalin Hasan</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ofr3734@gmail.com</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>oeddvttc@gmail.com</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Tawanda Sonny Pondo</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>tawandasonniepondo@gmail.com</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Sina Ahandoust</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>sinaahandoust2@gmail.com</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Henok Habte</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>henokhabte345@gmail.com</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>adoncdra@gmail.com</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>oilwgwoi@gmail.com</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>eudjbqeq@gmail.com</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>lbgnnjem@gmail.com</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>ji wine</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>huangjiujzx@gmail.com</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>qqtnkjyt@gmail.com</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>fgaujgrk@gmail.com</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Tasmia jabbar</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>tasmiajabbar@gmail.com</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://www.floatchat.ai</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>kzlzrtsq@gmail.com</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>mary john</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>maryjohnseoexpertgustpost@gmail.com</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://www.floatchat.ai</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>rjnqilzi@gmail.com</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>wlgmkjbi@gmail.com</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>jiaybkxu@gmail.com</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Joeann Reda</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>digitalwebsiteonline@gmail.com</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://wpforms.com/account/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>XonaghengAnypeSS</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>gblhzndfdoa@bobbor.store</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Olusanya Ayomide</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>hidobo7666@backva.com</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Push it to the limit cool Wolf! You are the best and you can do everything!</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>cakesokolova@yandex.ru</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://www.letsdial.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>vejhxefb@gmail.com</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>bsvnvsdr@gmail.com</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>pjgisjpc@gmail.com</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>gcibhydc@gmail.com</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>rcpotqqt@gmail.com</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>brmhlpfb@gmail.com</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>vgjlfbyf@gmail.com</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ylculdme@gmail.com</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>jose santos</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>euclidessdossantoss@gmail.com</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>hlrmemre@gmail.com</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Cristiano welbert duarte Bezerra</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>cristianowelbert5@gmail.com</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>https://www.smslocal.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>awrjqcaj@gmail.com</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>hfmmrzzj@gmail.com</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>meyerjulie 046</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>meyerjulie046@gmail.com</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>https://www.floatchat.ai</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>pzuslbtx@gmail.com</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Anthony clark</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>myry4150@gmail.com</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Christy Mark</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>christy@guestpostzoomwings.com</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>https://www.floatchat.ai</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>hnldsdlq@gmail.com</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>gxraoqcy@gmail.com</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>jai bardon</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>jaibardon.co.us@gmail.com</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://www.floatchat.ai</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>klxtiqbw@gmail.com</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>qlhfagiv@gmail.com</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Ade Ola</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>tijanioluwasegun.ra2fz@aleeas.com</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Win Min</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>winmin2706@gmail.com</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>kenneddy zulfikar</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>zkms2030@gmail.com</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>siiffbhj@gmail.com</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>ecfvramh@gmail.com</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>utizxvro@gmail.com</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Aurangzeb Khan</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>insafigaming@gmail.com</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>

--- a/SiteCode/Live Data/leads.xlsx
+++ b/SiteCode/Live Data/leads.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C207"/>
+  <dimension ref="A1:C229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1932,12 +1932,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>megha lohar</t>
+          <t>Abdulrehman testing</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>sk3group2@gmail.com</t>
+          <t>info@smslocal.com</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1949,46 +1949,46 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Lolo Bee</t>
+          <t>megha lohar</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>lolo.emu@gmail.com</t>
+          <t>sk3group2@gmail.com</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://www.smslocal.com</t>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Rakib Khan</t>
+          <t>Lolo Bee</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>testrakib321@gmail.com</t>
+          <t>lolo.emu@gmail.com</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://www.mycountrymobile.com</t>
+          <t>https://www.smslocal.com</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Melissa Ansell</t>
+          <t>Rakib Khan</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ansell.melissa@gmail.com</t>
+          <t>testrakib321@gmail.com</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2000,12 +2000,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Tristen Tristan</t>
+          <t>Melissa Ansell</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>golemapple@gmail.com</t>
+          <t>ansell.melissa@gmail.com</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2017,12 +2017,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>saroar Hossain</t>
+          <t>Tristen Tristan</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>saroarhossan888@gmail.com</t>
+          <t>golemapple@gmail.com</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2034,12 +2034,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>LavillHaxHE</t>
+          <t>saroar Hossain</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>revers@1ti.ru</t>
+          <t>saroarhossan888@gmail.com</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2051,12 +2051,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Natso Ins</t>
+          <t>LavillHaxHE</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>incnatso@priest.com</t>
+          <t>revers@1ti.ru</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2068,46 +2068,46 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Amanda White</t>
+          <t>Natso Ins</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>amanda@onlinearticles.org</t>
+          <t>incnatso@priest.com</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://wpforms.com/account/</t>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>akdb fkkf</t>
+          <t>Amanda White</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ridoyhasan17654@gmail.com</t>
+          <t>amanda@onlinearticles.org</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://www.mycountrymobile.com</t>
+          <t>https://wpforms.com/account/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sneha Sneh</t>
+          <t>akdb fkkf</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>testing@sneha.com</t>
+          <t>ridoyhasan17654@gmail.com</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2119,46 +2119,46 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Joel</t>
+          <t>Sneha Sneh</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>info@telecom2go.net</t>
+          <t>testing@sneha.com</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://www.softtop.tech</t>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>jack brown</t>
+          <t>Joel</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>shreddedbra@yahoo.com.au</t>
+          <t>info@telecom2go.net</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://www.mycountrymobile.com</t>
+          <t>https://www.softtop.tech</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Hady Salah</t>
+          <t>jack brown</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>hadysalah632@gmail.com</t>
+          <t>shreddedbra@yahoo.com.au</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2170,46 +2170,46 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Georgina Haynes</t>
+          <t>Hady Salah</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>georginahaynes620@gmail.com</t>
+          <t>hadysalah632@gmail.com</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://www.letsdial.com</t>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Anthony Davis</t>
+          <t>Georgina Haynes</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>computador346789@gmail.com</t>
+          <t>georginahaynes620@gmail.com</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://www.mycountrymobile.com</t>
+          <t>https://www.letsdial.com</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Zubair Ali</t>
+          <t>Anthony Davis</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>zubairaliadm@gmail.com</t>
+          <t>computador346789@gmail.com</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2221,114 +2221,114 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Johnie Johnie</t>
+          <t>Zubair Ali</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>info@saintlucliege.be</t>
+          <t>zubairaliadm@gmail.com</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://www.ringflow.com</t>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sneha Bendre</t>
+          <t>Johnie Johnie</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>snehatest@gmail.com</t>
+          <t>info@saintlucliege.be</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://www.mycountrymobile.com</t>
+          <t>https://www.ringflow.com</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sneha</t>
+          <t>Sneha Bendre</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Snehatest@gmail.com</t>
+          <t>snehatest@gmail.com</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://www.letsdial.com</t>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>dad fasf</t>
+          <t>Sneha</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>carlostillo2672@gmail.com</t>
+          <t>Snehatest@gmail.com</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://www.mycountrymobile.com</t>
+          <t>https://www.letsdial.com</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Aurora Anderson</t>
+          <t>dad fasf</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>aurora@wowblogging.com</t>
+          <t>carlostillo2672@gmail.com</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://www.ringflow.com</t>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Joseph Davis</t>
+          <t>Aurora Anderson</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>kathie.linkous@gmail.com</t>
+          <t>aurora@wowblogging.com</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://www.letsdial.com</t>
+          <t>https://www.ringflow.com</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Push it to the limit cool Wolf! You are the best and you can do everything!</t>
+          <t>Joseph Davis</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>assoltarasova83@mail.ru</t>
+          <t>kathie.linkous@gmail.com</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2340,80 +2340,80 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>fefere ererrr</t>
+          <t>Push it to the limit cool Wolf! You are the best and you can do everything!</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>wilbournejohn5@gmail.com</t>
+          <t>assoltarasova83@mail.ru</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://www.mycountrymobile.com</t>
+          <t>https://www.letsdial.com</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Push it to the limit cool Wolf! You are the best and you can do everything!</t>
+          <t>fefere ererrr</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>danil0796@rambler.ru</t>
+          <t>wilbournejohn5@gmail.com</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://www.letsdial.com</t>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Georgina</t>
+          <t>Push it to the limit cool Wolf! You are the best and you can do everything!</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>georginahaynes620@gmail.com</t>
+          <t>danil0796@rambler.ru</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://www.softtop.tech</t>
+          <t>https://www.letsdial.com</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Jamal Jamal</t>
+          <t>Georgina</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>abhijitsexo@gmail.com</t>
+          <t>georginahaynes620@gmail.com</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://www.mycountrymobile.com</t>
+          <t>https://www.softtop.tech</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Andrew Bright</t>
+          <t>Jamal Jamal</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>andrewbright46@gmail.com</t>
+          <t>abhijitsexo@gmail.com</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2425,34 +2425,34 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>sdad asda</t>
+          <t>Andrew Bright</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>hagekavu@hexi.pics</t>
+          <t>andrewbright46@gmail.com</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://www.smslocal.com</t>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>KevinVICRR</t>
+          <t>sdad asda</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ooxbvlgw@gmail.com</t>
+          <t>hagekavu@hexi.pics</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://www.mycountrymobile.com</t>
+          <t>https://www.smslocal.com</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>yywtkuqa@gmail.com</t>
+          <t>ooxbvlgw@gmail.com</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2476,12 +2476,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>hossein d</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>e.ho3ein@gmail.com</t>
+          <t>yywtkuqa@gmail.com</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2493,12 +2493,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>KevinVICRR</t>
+          <t>hossein d</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>nbydihjm@gmail.com</t>
+          <t>e.ho3ein@gmail.com</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2510,97 +2510,97 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>juliana hallie</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>julianahallieadvisorseo@gmail.com</t>
+          <t>nbydihjm@gmail.com</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://www.smslocal.com</t>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MUHAMMAD Ubaid</t>
+          <t>juliana hallie</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>muhammadubaidnadeem@gmail.com</t>
+          <t>julianahallieadvisorseo@gmail.com</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://www.mycountrymobile.com</t>
+          <t>https://www.smslocal.com</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Junko Junko</t>
+          <t>MUHAMMAD Ubaid</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>junko@huntingfield.podiatristusa.sale</t>
+          <t>muhammadubaidnadeem@gmail.com</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://www.ringflow.com</t>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Anthony Rich</t>
+          <t>Junko Junko</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>hello@easywealthsystems.com</t>
+          <t>junko@huntingfield.podiatristusa.sale</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://www.letsdial.com</t>
+          <t>https://www.ringflow.com</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ShawnBizUQ</t>
+          <t>Anthony Rich</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>mr.bumbaster81@gmail.com</t>
+          <t>hello@easywealthsystems.com</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://www.mycountrymobile.com</t>
+          <t>https://www.letsdial.com</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>KevinVICRR</t>
+          <t>ShawnBizUQ</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>hgvmvvay@gmail.com</t>
+          <t>mr.bumbaster81@gmail.com</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>pisyaufp@gmail.com</t>
+          <t>hgvmvvay@gmail.com</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2629,12 +2629,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>VirgilligYQ</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>sitechecker69+round2@gmail.com</t>
+          <t>pisyaufp@gmail.com</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2646,12 +2646,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>manna da</t>
+          <t>VirgilligYQ</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>memlizispi@gufum.com</t>
+          <t>sitechecker69+round2@gmail.com</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2663,12 +2663,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>KevinVICRR</t>
+          <t>manna da</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>xcqohbok@gmail.com</t>
+          <t>memlizispi@gufum.com</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>miwuauhx@gmail.com</t>
+          <t>xcqohbok@gmail.com</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>pdoxvuyc@gmail.com</t>
+          <t>miwuauhx@gmail.com</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>onqdpgtv@gmail.com</t>
+          <t>pdoxvuyc@gmail.com</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>cdlmtikn@gmail.com</t>
+          <t>onqdpgtv@gmail.com</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>phomttic@gmail.com</t>
+          <t>cdlmtikn@gmail.com</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>usvxndyr@gmail.com</t>
+          <t>phomttic@gmail.com</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ubzbbhgj@gmail.com</t>
+          <t>usvxndyr@gmail.com</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>wyduwjpp@gmail.com</t>
+          <t>ubzbbhgj@gmail.com</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>xhjgtgqj@gmail.com</t>
+          <t>wyduwjpp@gmail.com</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>mplfgnjo@gmail.com</t>
+          <t>xhjgtgqj@gmail.com</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>uvjodqhm@gmail.com</t>
+          <t>mplfgnjo@gmail.com</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>arefafum@gmail.com</t>
+          <t>uvjodqhm@gmail.com</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>auhqgutu@gmail.com</t>
+          <t>arefafum@gmail.com</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2901,12 +2901,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>jade johnson</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>jadejohnson6917@gmail.com</t>
+          <t>auhqgutu@gmail.com</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2918,12 +2918,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>KevinVICRR</t>
+          <t>jade johnson</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ayogeost@gmail.com</t>
+          <t>jadejohnson6917@gmail.com</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>curtmrxp@gmail.com</t>
+          <t>ayogeost@gmail.com</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>sqvdhmwa@gmail.com</t>
+          <t>curtmrxp@gmail.com</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>kgwymysx@gmail.com</t>
+          <t>sqvdhmwa@gmail.com</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2986,12 +2986,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Prince Do</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>dohareyprince@gmail.com</t>
+          <t>kgwymysx@gmail.com</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3003,12 +3003,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>KevinVICRR</t>
+          <t>Prince Do</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ssdpxkyf@gmail.com</t>
+          <t>dohareyprince@gmail.com</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ffylpwqo@gmail.com</t>
+          <t>ssdpxkyf@gmail.com</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ejjullav@gmail.com</t>
+          <t>ffylpwqo@gmail.com</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>psrpeqdo@gmail.com</t>
+          <t>ejjullav@gmail.com</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>dyilrzcs@gmail.com</t>
+          <t>psrpeqdo@gmail.com</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3088,12 +3088,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Morsalin Hasan</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ofr3734@gmail.com</t>
+          <t>dyilrzcs@gmail.com</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3105,12 +3105,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>KevinVICRR</t>
+          <t>Morsalin Hasan</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>oeddvttc@gmail.com</t>
+          <t>ofr3734@gmail.com</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3122,12 +3122,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Tawanda Sonny Pondo</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>tawandasonniepondo@gmail.com</t>
+          <t>oeddvttc@gmail.com</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3139,12 +3139,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sina Ahandoust</t>
+          <t>Tawanda Sonny Pondo</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>sinaahandoust2@gmail.com</t>
+          <t>tawandasonniepondo@gmail.com</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3156,12 +3156,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Henok Habte</t>
+          <t>Sina Ahandoust</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>henokhabte345@gmail.com</t>
+          <t>sinaahandoust2@gmail.com</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3173,12 +3173,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>KevinVICRR</t>
+          <t>Henok Habte</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>adoncdra@gmail.com</t>
+          <t>henokhabte345@gmail.com</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>oilwgwoi@gmail.com</t>
+          <t>adoncdra@gmail.com</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>eudjbqeq@gmail.com</t>
+          <t>oilwgwoi@gmail.com</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>lbgnnjem@gmail.com</t>
+          <t>eudjbqeq@gmail.com</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3241,12 +3241,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ji wine</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>huangjiujzx@gmail.com</t>
+          <t>lbgnnjem@gmail.com</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3258,12 +3258,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>KevinVICRR</t>
+          <t>ji wine</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>qqtnkjyt@gmail.com</t>
+          <t>huangjiujzx@gmail.com</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>fgaujgrk@gmail.com</t>
+          <t>qqtnkjyt@gmail.com</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3292,68 +3292,68 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Tasmia jabbar</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>tasmiajabbar@gmail.com</t>
+          <t>fgaujgrk@gmail.com</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://www.floatchat.ai</t>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>KevinVICRR</t>
+          <t>Tasmia jabbar</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>kzlzrtsq@gmail.com</t>
+          <t>tasmiajabbar@gmail.com</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://www.mycountrymobile.com</t>
+          <t>https://www.floatchat.ai</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>mary john</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>maryjohnseoexpertgustpost@gmail.com</t>
+          <t>kzlzrtsq@gmail.com</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://www.floatchat.ai</t>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>KevinVICRR</t>
+          <t>mary john</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>rjnqilzi@gmail.com</t>
+          <t>maryjohnseoexpertgustpost@gmail.com</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://www.mycountrymobile.com</t>
+          <t>https://www.floatchat.ai</t>
         </is>
       </c>
     </row>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>wlgmkjbi@gmail.com</t>
+          <t>rjnqilzi@gmail.com</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>jiaybkxu@gmail.com</t>
+          <t>wlgmkjbi@gmail.com</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3394,46 +3394,46 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Joeann Reda</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>digitalwebsiteonline@gmail.com</t>
+          <t>jiaybkxu@gmail.com</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://wpforms.com/account/</t>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>XonaghengAnypeSS</t>
+          <t>Joeann Reda</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>gblhzndfdoa@bobbor.store</t>
+          <t>digitalwebsiteonline@gmail.com</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://www.mycountrymobile.com</t>
+          <t>https://wpforms.com/account/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Olusanya Ayomide</t>
+          <t>XonaghengAnypeSS</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>hidobo7666@backva.com</t>
+          <t>gblhzndfdoa@bobbor.store</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3445,34 +3445,34 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Push it to the limit cool Wolf! You are the best and you can do everything!</t>
+          <t>Olusanya Ayomide</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>cakesokolova@yandex.ru</t>
+          <t>hidobo7666@backva.com</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://www.letsdial.com</t>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>KevinVICRR</t>
+          <t>Push it to the limit cool Wolf! You are the best and you can do everything!</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>vejhxefb@gmail.com</t>
+          <t>cakesokolova@yandex.ru</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://www.mycountrymobile.com</t>
+          <t>https://www.letsdial.com</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>bsvnvsdr@gmail.com</t>
+          <t>vejhxefb@gmail.com</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>pjgisjpc@gmail.com</t>
+          <t>bsvnvsdr@gmail.com</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>gcibhydc@gmail.com</t>
+          <t>pjgisjpc@gmail.com</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>rcpotqqt@gmail.com</t>
+          <t>gcibhydc@gmail.com</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>brmhlpfb@gmail.com</t>
+          <t>rcpotqqt@gmail.com</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>vgjlfbyf@gmail.com</t>
+          <t>brmhlpfb@gmail.com</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ylculdme@gmail.com</t>
+          <t>vgjlfbyf@gmail.com</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3598,12 +3598,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>jose santos</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>euclidessdossantoss@gmail.com</t>
+          <t>ylculdme@gmail.com</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3615,12 +3615,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>KevinVICRR</t>
+          <t>jose santos</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>hlrmemre@gmail.com</t>
+          <t>euclidessdossantoss@gmail.com</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -3632,34 +3632,34 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Cristiano welbert duarte Bezerra</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>cristianowelbert5@gmail.com</t>
+          <t>hlrmemre@gmail.com</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://www.smslocal.com</t>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>KevinVICRR</t>
+          <t>Cristiano welbert duarte Bezerra</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>awrjqcaj@gmail.com</t>
+          <t>cristianowelbert5@gmail.com</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://www.mycountrymobile.com</t>
+          <t>https://www.smslocal.com</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>hfmmrzzj@gmail.com</t>
+          <t>awrjqcaj@gmail.com</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -3683,46 +3683,46 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>meyerjulie 046</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>meyerjulie046@gmail.com</t>
+          <t>hfmmrzzj@gmail.com</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://www.floatchat.ai</t>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>KevinVICRR</t>
+          <t>meyerjulie 046</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>pzuslbtx@gmail.com</t>
+          <t>meyerjulie046@gmail.com</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://www.mycountrymobile.com</t>
+          <t>https://www.floatchat.ai</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Anthony clark</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>myry4150@gmail.com</t>
+          <t>pzuslbtx@gmail.com</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3734,34 +3734,34 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Christy Mark</t>
+          <t>Anthony clark</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>christy@guestpostzoomwings.com</t>
+          <t>myry4150@gmail.com</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://www.floatchat.ai</t>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>KevinVICRR</t>
+          <t>Christy Mark</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>hnldsdlq@gmail.com</t>
+          <t>christy@guestpostzoomwings.com</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://www.mycountrymobile.com</t>
+          <t>https://www.floatchat.ai</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>gxraoqcy@gmail.com</t>
+          <t>hnldsdlq@gmail.com</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3785,34 +3785,34 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>jai bardon</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>jaibardon.co.us@gmail.com</t>
+          <t>gxraoqcy@gmail.com</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://www.floatchat.ai</t>
+          <t>https://www.mycountrymobile.com</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>KevinVICRR</t>
+          <t>jai bardon</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>klxtiqbw@gmail.com</t>
+          <t>jaibardon.co.us@gmail.com</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://www.mycountrymobile.com</t>
+          <t>https://www.floatchat.ai</t>
         </is>
       </c>
     </row>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>qlhfagiv@gmail.com</t>
+          <t>klxtiqbw@gmail.com</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3836,12 +3836,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Ade Ola</t>
+          <t>KevinVICRR</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>tijanioluwasegun.ra2fz@aleeas.com</t>
+          <t>qlhfagiv@gmail.com</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3853,12 +3853,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Win Min</t>
+          <t>Ade Ola</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>winmin2706@gmail.com</t>
+          <t>tijanioluwasegun.ra2fz@aleeas.com</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -3870,12 +3870,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>kenneddy zulfikar</t>
+          <t>Win Min</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>zkms2030@gmail.com</t>
+          <t>winmin2706@gmail.com</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3887,12 +3887,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>KevinVICRR</t>
+          <t>kenneddy zulfikar</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>siiffbhj@gmail.com</t>
+          <t>zkms2030@gmail.com</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ecfvramh@gmail.com</t>
+          <t>siiffbhj@gmail.com</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>utizxvro@gmail.com</t>
+          <t>ecfvramh@gmail.com</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3938,15 +3938,389 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>utizxvro@gmail.com</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
           <t>Aurangzeb Khan</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>insafigaming@gmail.com</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Martin Mirero</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>mmirero@datacraft.systems</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Clara Dedomenici</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>claradedomenici2006@gmail.com</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>nwewrxxw@gmail.com</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>eympboto@gmail.com</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>wbjjuess@gmail.com</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Bernice Lang</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>digitalwebsiteonline@gmail.com</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>https://wpforms.com/account/</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>MEVIUS</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>hongmoney888@icloud.com</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>https://www.softtop.tech</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>pazo noor</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>paznoorra@gmail.com</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>https://www.floatchat.ai</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Julian Ann</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>julian@zoomwings.co.uk</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>https://www.floatchat.ai</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Boba Radicanin</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>bobaradicanin535@gmail.com</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>https://www.floatchat.ai</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Robert Johnson</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>liu.tyler@hotmail.com</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>https://www.letsdial.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Md. Touhidul Islam</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>samratkhan455@gmail.com</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>syqlneva@gmail.com</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>daphne</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>daphne.ann@advantageinvestors.net</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>https://www.softtop.tech</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>hcgibuns@gmail.com</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>uabfjimv@gmail.com</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>tukxmiut@gmail.com</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>udzmeeju@gmail.com</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>nate marte</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>nmarte799@gmail.com</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>uwnqisin@gmail.com</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>https://www.mycountrymobile.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>KevinVICRR</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>rbfygdep@gmail.com</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
         <is>
           <t>https://www.mycountrymobile.com</t>
         </is>
